--- a/data_makret_value.xlsx
+++ b/data_makret_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra\Documents\GitHub\wer_omc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B62095-065B-47EA-8B60-12F33A163BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFF7F5-1212-4FD3-81D0-760116704B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18000" windowHeight="11170" xr2:uid="{193EFBC7-0589-4030-AE23-25721ABE0BA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{193EFBC7-0589-4030-AE23-25721ABE0BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Confederation</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>€1.47bn</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>€1.21bn</t>
   </si>
   <si>
@@ -71,45 +65,24 @@
     <t>€1.06bn</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>€906.00m</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>€757.00m</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>€672.00m</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>€610.00m</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>€540.80m</t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>€474.20m</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>€368.50m</t>
   </si>
   <si>
@@ -119,63 +92,33 @@
     <t>€354.50m</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>€343.50m</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>€303.45m</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>€286.00m</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>€265.80m</t>
   </si>
   <si>
-    <t>Scotland</t>
-  </si>
-  <si>
     <t>€239.40m</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
     <t>€227.60m</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>€223.20m</t>
   </si>
   <si>
-    <t>Republic of Ireland</t>
-  </si>
-  <si>
     <t>€215.90m</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>€200.00m</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>€199.10m</t>
   </si>
   <si>
@@ -185,57 +128,30 @@
     <t>€175.85m</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>€166.65m</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>€156.90m</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>€151.85m</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>€146.65m</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>€130.85m</t>
   </si>
   <si>
-    <t>Bosnia-Herzegovina</t>
-  </si>
-  <si>
     <t>€127.15m</t>
   </si>
   <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>€126.50m</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>€123.05m</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
     <t>€95.73m</t>
   </si>
   <si>
@@ -245,9 +161,6 @@
     <t>€89.43m</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>€70.70m</t>
   </si>
   <si>
@@ -257,15 +170,9 @@
     <t>€57.45m</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>€51.73m</t>
   </si>
   <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
     <t>€49.10m</t>
   </si>
   <si>
@@ -275,75 +182,39 @@
     <t>€40.03m</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>€33.65m</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
     <t>€33.38m</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>€33.18m</t>
   </si>
   <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>€30.83m</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>€21.50m</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>€17.65m</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
     <t>€16.00m</t>
   </si>
   <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>€15.00m</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>€11.75m</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
     <t>€11.48m</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>€10.40m</t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>€9.00m</t>
   </si>
   <si>
@@ -359,9 +230,6 @@
     <t>€3.28m</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>€2.90m</t>
   </si>
   <si>
@@ -389,7 +257,139 @@
     <t>-</t>
   </si>
   <si>
-    <t>Sweden B</t>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
+    <t>Spanien</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Niederlande</t>
+  </si>
+  <si>
+    <t>Belgien</t>
+  </si>
+  <si>
+    <t>Norwegen</t>
+  </si>
+  <si>
+    <t>Dänemark</t>
+  </si>
+  <si>
+    <t>Schweden</t>
+  </si>
+  <si>
+    <t>Kroatien</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>Schottland</t>
+  </si>
+  <si>
+    <t>Serbien</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Republik Irland</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Polen</t>
+  </si>
+  <si>
+    <t>Ungarn</t>
+  </si>
+  <si>
+    <t>Georgien</t>
+  </si>
+  <si>
+    <t>Griechenland</t>
+  </si>
+  <si>
+    <t>Tschechische Republik</t>
+  </si>
+  <si>
+    <t>Slowenien</t>
+  </si>
+  <si>
+    <t>Bosnien-Herzegowina</t>
+  </si>
+  <si>
+    <t>Slowakei</t>
+  </si>
+  <si>
+    <t>Albanien</t>
+  </si>
+  <si>
+    <t>Rumänien</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Nord-Mazedonien</t>
+  </si>
+  <si>
+    <t>Nordirland</t>
+  </si>
+  <si>
+    <t>Finnland</t>
+  </si>
+  <si>
+    <t>Bulgarien</t>
+  </si>
+  <si>
+    <t>Armenien</t>
+  </si>
+  <si>
+    <t>Luxemburg</t>
+  </si>
+  <si>
+    <t>Kasachstan</t>
+  </si>
+  <si>
+    <t>Zypern</t>
+  </si>
+  <si>
+    <t>Aserbaidschan</t>
+  </si>
+  <si>
+    <t>Moldawien</t>
+  </si>
+  <si>
+    <t>Weißrussland</t>
+  </si>
+  <si>
+    <t>Litauen</t>
+  </si>
+  <si>
+    <t>Lettland</t>
+  </si>
+  <si>
+    <t>Estland</t>
+  </si>
+  <si>
+    <t>Färöer Inseln</t>
+  </si>
+  <si>
+    <t>Schweden B</t>
+  </si>
+  <si>
+    <t>Türkei</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -794,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -822,13 +822,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -836,13 +836,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -850,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -864,13 +864,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -878,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -892,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -906,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -920,13 +920,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -934,13 +934,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -948,13 +948,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -962,13 +962,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -976,13 +976,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -990,13 +990,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1004,13 +1004,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1018,13 +1018,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1032,13 +1032,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1046,13 +1046,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1060,13 +1060,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1074,13 +1074,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1088,13 +1088,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1116,13 +1116,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1130,13 +1130,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1144,13 +1144,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1158,13 +1158,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1172,13 +1172,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1186,13 +1186,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1200,13 +1200,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1214,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1228,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1242,13 +1242,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1256,13 +1256,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1270,13 +1270,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1284,13 +1284,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1298,13 +1298,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1312,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1326,13 +1326,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1340,13 +1340,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1354,13 +1354,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1368,13 +1368,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1382,13 +1382,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1396,13 +1396,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1410,13 +1410,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1424,13 +1424,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1438,13 +1438,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1452,13 +1452,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1466,13 +1466,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1480,13 +1480,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1494,13 +1494,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1508,13 +1508,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1522,13 +1522,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1536,13 +1536,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1550,13 +1550,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1564,13 +1564,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1578,13 +1578,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
